--- a/Author_List.xlsx
+++ b/Author_List.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="APPA" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Gabriel" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="HPXM2025" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="BEGe" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="PRA" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Affiliations" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="KNe_PRA" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="APPA" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Gabriel" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="HPXM2025" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="BEGe" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="PRA" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Affiliations" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="284">
   <si>
     <t>2% of 100 for a stock that cost 10</t>
   </si>
@@ -51,6 +52,18 @@
     <t>0000-0003-3770-0863</t>
   </si>
   <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Sgaramella</t>
+  </si>
+  <si>
+    <t>Francesco.Sgaramella@lnf.infn.it</t>
+  </si>
+  <si>
+    <t>0000-0002-0011-8864</t>
+  </si>
+  <si>
     <t>Leonardo</t>
   </si>
   <si>
@@ -66,7 +79,19 @@
     <t>0000-0001-9633-6606</t>
   </si>
   <si>
-    <t>Francesco</t>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Amsler</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Claude.Amsler@cern.ch</t>
+  </si>
+  <si>
+    <t>0000-0002-7695-501X</t>
   </si>
   <si>
     <t>Artibani</t>
@@ -261,6 +286,15 @@
     <t>0000-0002-4743-0572</t>
   </si>
   <si>
+    <t>Guaraldo</t>
+  </si>
+  <si>
+    <t>carlo.guaraldo@lnf.infn.it</t>
+  </si>
+  <si>
+    <t>0000-0002-8923-3438</t>
+  </si>
+  <si>
     <t>Mihai</t>
   </si>
   <si>
@@ -348,6 +382,33 @@
     <t>0000-0001-5644-5963</t>
   </si>
   <si>
+    <t>Fabrizio</t>
+  </si>
+  <si>
+    <t>Napolitano</t>
+  </si>
+  <si>
+    <t>A19,A20</t>
+  </si>
+  <si>
+    <t>Fabrizio.Napolitano@lnf.infn.it</t>
+  </si>
+  <si>
+    <t>0000-0002-8686-5923</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedźwiecki </t>
+  </si>
+  <si>
+    <t>szymon.niedzwiecki@uj.edu.pl</t>
+  </si>
+  <si>
+    <t>0000-0002-5953-9479</t>
+  </si>
+  <si>
     <t>Hiroaki</t>
   </si>
   <si>
@@ -402,15 +463,6 @@
     <t>0000-0002-7703-7050</t>
   </si>
   <si>
-    <t>Sgaramella</t>
-  </si>
-  <si>
-    <t>Francesco.Sgaramella@lnf.infn.it</t>
-  </si>
-  <si>
-    <t>0000-0002-0011-8864</t>
-  </si>
-  <si>
     <t>Michał</t>
   </si>
   <si>
@@ -465,6 +517,18 @@
     <t>0000-0002-4794-5154</t>
   </si>
   <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Sommerfeldt</t>
+  </si>
+  <si>
+    <t>jonas.sommerfeldt@lkb.upmc.fr</t>
+  </si>
+  <si>
+    <t>0000-0002-3471-7494</t>
+  </si>
+  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -513,6 +577,18 @@
     <t>0000-0001-6459-8134</t>
   </si>
   <si>
+    <t>Johann</t>
+  </si>
+  <si>
+    <t>Zmeskal</t>
+  </si>
+  <si>
+    <t>johann.zmeskal@gmail.com</t>
+  </si>
+  <si>
+    <t>0000-0003-0815-0639</t>
+  </si>
+  <si>
     <t>Catalina</t>
   </si>
   <si>
@@ -540,18 +616,6 @@
     <t>0000-0002-9628-3564</t>
   </si>
   <si>
-    <t>Johann</t>
-  </si>
-  <si>
-    <t>Zmeskal</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>0000-0003-0815-0639</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -588,16 +652,22 @@
     <t>Cargnelli</t>
   </si>
   <si>
+    <t>michael.cargnelli@gmail.com</t>
+  </si>
+  <si>
     <t>Ivan</t>
   </si>
   <si>
     <t>Carnevali</t>
   </si>
   <si>
-    <t>Guaraldo</t>
-  </si>
-  <si>
-    <t>0000-0002-8923-3438</t>
+    <t>ivan.carnevali02@gmail.com</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mihai Antoniu</t>
   </si>
   <si>
     <t>Matthias</t>
@@ -609,33 +679,30 @@
     <t>A24</t>
   </si>
   <si>
+    <t>matthias.laubenstein@lngs.infn.it</t>
+  </si>
+  <si>
     <t>0000-0001-5390-4343</t>
   </si>
   <si>
-    <t>Fabrizio</t>
-  </si>
-  <si>
-    <t>Napolitano</t>
-  </si>
-  <si>
-    <t>A19,A20</t>
-  </si>
-  <si>
-    <t>Fabrizio.Napolitano@lnf.infn.it</t>
-  </si>
-  <si>
-    <t>0000-0002-8686-5923</t>
-  </si>
-  <si>
     <t>Federico</t>
   </si>
   <si>
     <t>Nola</t>
   </si>
   <si>
+    <t>A1,A26,A27</t>
+  </si>
+  <si>
+    <t>federico.nola@unicampania.it</t>
+  </si>
+  <si>
     <t>0000-0001-9249-9547</t>
   </si>
   <si>
+    <t>A2,A1</t>
+  </si>
+  <si>
     <t>Alessio</t>
   </si>
   <si>
@@ -645,9 +712,15 @@
     <t>A25,A13</t>
   </si>
   <si>
+    <t>alessio.porcelli@uj.edu.pl</t>
+  </si>
+  <si>
     <t>0000-0002-3220-6295</t>
   </si>
   <si>
+    <t>Catalina.Curceanu@lnf.infn.it</t>
+  </si>
+  <si>
     <t>Lajos</t>
   </si>
   <si>
@@ -663,12 +736,6 @@
     <t>0000-0003-4722-3220</t>
   </si>
   <si>
-    <t>Claude</t>
-  </si>
-  <si>
-    <t>Amsler</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
@@ -790,6 +857,18 @@
   </si>
   <si>
     <t>Centro de Investigacíon, Tecnología, Educacíon y Vinculacíon Astronómica, Universidad de Antofagasta, Avenida Angamos 601, 1240000, Antofagasta, Chile</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>Istituto Nazionale di Fisica Nucleare, Complesso Universitario di Monte S. Angelo, Via Cintia - I-80126 Napoli, Italy</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>Dipartimento di Matematica e Fisica, Università degli Studi della Campania "Luigi Vanvitelli", viale Abramo Lincoln 5 - I-81100 Caserta, Italy</t>
   </si>
 </sst>
 </file>
@@ -835,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -853,6 +932,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -943,7 +1025,13 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="4">
+  <tableStyles count="5">
+    <tableStyle count="4" pivot="0" name="KNe_PRA-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    </tableStyle>
     <tableStyle count="4" pivot="0" name="APPA-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -996,8 +1084,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F38" displayName="Tabella_1" name="Tabella_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F44" displayName="Tabella_4" name="Tabella_4" id="1">
+  <tableColumns count="6">
+    <tableColumn name="2% of 100 for a stock that cost 10" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Surname" id="3"/>
+    <tableColumn name="Affiliations" id="4"/>
+    <tableColumn name="Email" id="5"/>
+    <tableColumn name="Orcid" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="KNe_PRA-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F38" displayName="Tabella_1" name="Tabella_1" id="2">
   <tableColumns count="6">
     <tableColumn name="2% of 100 for a stock that cost 10" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1010,8 +1116,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F10" displayName="Tabella_2" name="Tabella_2" id="2">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F10" displayName="Tabella_2" name="Tabella_2" id="3">
   <tableColumns count="6">
     <tableColumn name="2% of 100 for a stock that cost 10" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1024,8 +1130,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F10" displayName="Tabella_3" name="Tabella_3" id="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F10" displayName="Tabella_3" name="Tabella_3" id="4">
   <tableColumns count="6">
     <tableColumn name="2% of 100 for a stock that cost 10" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1038,8 +1144,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F25" displayName="Tabella" name="Tabella" id="4">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F25" displayName="Tabella" name="Tabella" id="5">
   <tableColumns count="6">
     <tableColumn name="Id" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1267,7 +1373,7 @@
     <col customWidth="1" min="6" max="6" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
@@ -1307,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
@@ -1318,307 +1424,307 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>79</v>
@@ -1627,7 +1733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
@@ -1638,7 +1744,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>83</v>
@@ -1647,7 +1753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
@@ -1658,287 +1764,287 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="3">
         <v>20.0</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="3">
         <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="3">
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="3">
         <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="3">
         <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="3">
         <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="3">
         <v>27.0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="3">
         <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="3">
         <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>151</v>
@@ -1947,7 +2053,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
@@ -1958,90 +2064,198 @@
         <v>154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="3">
         <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="3">
         <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="3">
         <v>37.0</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="3">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="3">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A38">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A44">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2055,7 +2269,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFD62728"/>
+    <tabColor rgb="FFFF7F0E"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2073,7 +2287,7 @@
     <col customWidth="1" min="6" max="6" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
@@ -2107,185 +2321,747 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>7.0</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="3">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A10">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A38">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2317,7 +3093,7 @@
     <col customWidth="1" min="6" max="6" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
@@ -2351,181 +3127,181 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="3">
         <v>6.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="3">
         <v>8.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="3">
         <v>4.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="3">
         <v>5.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="3">
         <v>7.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -2541,6 +3317,250 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFD62728"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="3" width="12.25"/>
+    <col customWidth="1" min="4" max="4" width="13.75"/>
+    <col customWidth="1" min="5" max="5" width="28.38"/>
+    <col customWidth="1" min="6" max="6" width="18.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A10">
+      <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF1F77B4"/>
@@ -2561,9 +3581,9 @@
     <col customWidth="1" min="6" max="6" width="18.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2581,8 +3601,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8">
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="9">
         <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2595,449 +3615,479 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9">
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>179</v>
+      <c r="B3" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="10">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="9">
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="10">
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="9">
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="9">
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="10">
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="8">
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" s="9">
         <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="10">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="9">
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="10">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="9">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="10">
         <v>13.0</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8">
+      <c r="B14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="9">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="10">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="9">
         <v>16.0</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9">
+      <c r="B17" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="10">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="9">
         <v>18.0</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9">
+      <c r="B19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="10">
         <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="9">
         <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="10">
         <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="9">
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="10">
         <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="F24" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="9">
         <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -3052,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF1F77B4"/>
@@ -3072,330 +4122,330 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13">
+      <c r="A3" s="14">
         <v>2.0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>187</v>
+      <c r="B3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>3.0</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>168</v>
+      <c r="B4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4.0</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>119</v>
+      <c r="B5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13">
+      <c r="A6" s="14">
         <v>5.0</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>214</v>
+      <c r="B6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="14">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>17.0</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>18.0</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3404,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3419,211 +4469,227 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>255</v>
+      <c r="B25" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>257</v>
+      <c r="A26" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
